--- a/Typocrypha/Assets/excel/gameflow2.xlsx
+++ b/Typocrypha/Assets/excel/gameflow2.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
-  <si>
-    <t>INTRO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -504,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,390 +518,377 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0.75</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>0.75</v>
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
         <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Typocrypha/Assets/excel/gameflow2.xlsx
+++ b/Typocrypha/Assets/excel/gameflow2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>START_SCENE</t>
   </si>
@@ -77,15 +77,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>MIDDLE_HEALTH</t>
-  </si>
-  <si>
-    <t>RIGHT_HEALTH</t>
-  </si>
-  <si>
-    <t>PLAYER_HEALTH</t>
-  </si>
-  <si>
     <t>INTERRUPT</t>
   </si>
   <si>
@@ -150,6 +141,18 @@
   </si>
   <si>
     <t>cutscene_tests</t>
+  </si>
+  <si>
+    <t>check-health,1,0.5</t>
+  </si>
+  <si>
+    <t>check-health,1,0</t>
+  </si>
+  <si>
+    <t>check-health,2,0</t>
+  </si>
+  <si>
+    <t>check-health,3,0.75</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,10 +526,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -547,18 +550,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -566,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -587,16 +590,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -616,29 +616,26 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -649,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -658,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -672,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -681,29 +678,26 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -714,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -723,29 +717,26 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>0.75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -765,10 +756,10 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -779,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -788,15 +779,15 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -820,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -829,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -852,10 +843,10 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -866,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -875,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
